--- a/Higgins/29020-1/res.xlsx
+++ b/Higgins/29020-1/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Higgins\29020-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B81594-84C1-4A89-BCAF-BCA94C30EC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBEE50B-7B93-491A-87E7-D881F71B6BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8700" yWindow="735" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="res_ITC 12 - R11 and R16 Stormw" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'res_ITC 12 - R11 and R16 Stormw'!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'res_ITC 12 - R11 and R16 Stormw'!$A$1:$I$765</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="365">
   <si>
     <t>type</t>
   </si>
@@ -73,33 +73,6 @@
     <t>ITP - Pavement Rehab - SH 2 - Gun Shop Hill</t>
   </si>
   <si>
-    <t xml:space="preserve">Controlling Documents - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible Person - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifying Document - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conduct - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produce Record - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approval - </t>
-  </si>
-  <si>
     <t>Design - Geometric Design</t>
   </si>
   <si>
@@ -163,9 +136,6 @@
     <t>Records Management (i.e. it is known what documented records are to be kept)</t>
   </si>
   <si>
-    <t>3.   Construction - Pre-treatment Digouts</t>
-  </si>
-  <si>
     <t>Pre-treatment Repair Method Selection</t>
   </si>
   <si>
@@ -184,9 +154,6 @@
     <t>Place and compact GAP65 in digout area</t>
   </si>
   <si>
-    <t>4.   Construction - Granular make up and In-situ Modification</t>
-  </si>
-  <si>
     <t>Place M/4 AP40 Basecourse Material</t>
   </si>
   <si>
@@ -194,6 +161,963 @@
   </si>
   <si>
     <t>Addition of Water</t>
+  </si>
+  <si>
+    <t>Cut Depth</t>
+  </si>
+  <si>
+    <t>Longitudinal Joints</t>
+  </si>
+  <si>
+    <t>Continuity of Layer</t>
+  </si>
+  <si>
+    <t>Stabilised Material Particle Size</t>
+  </si>
+  <si>
+    <t>Establish Compaction Methodology - type of plant, number and speed of passes</t>
+  </si>
+  <si>
+    <t>Establish Compaction Target</t>
+  </si>
+  <si>
+    <t>Compaction Acceptance</t>
+  </si>
+  <si>
+    <t>Control Testing (if required)</t>
+  </si>
+  <si>
+    <t>Surface Smoothness</t>
+  </si>
+  <si>
+    <t>Surface Shape</t>
+  </si>
+  <si>
+    <t>Cross Fall</t>
+  </si>
+  <si>
+    <t>Surface Finish</t>
+  </si>
+  <si>
+    <t>Degree of Saturation, DOS</t>
+  </si>
+  <si>
+    <t>Roughness (NAASRA)</t>
+  </si>
+  <si>
+    <t>Chipseal Designs</t>
+  </si>
+  <si>
+    <t>Pavement Rehabilitation Construction Completion Report</t>
+  </si>
+  <si>
+    <t>3. Construction - Pre-treatment Digouts</t>
+  </si>
+  <si>
+    <t>4. Construction - Granular make up and In-situ Modification</t>
+  </si>
+  <si>
+    <t>6. Close Out</t>
+  </si>
+  <si>
+    <t>5. Chip Sealing - 5.1. Procurement</t>
+  </si>
+  <si>
+    <t>Binder - Penetration Grade</t>
+  </si>
+  <si>
+    <t>Binder - Polymer Modified Emulsion</t>
+  </si>
+  <si>
+    <t>Source Property - Coarse Aggregate - Crushing Resistance</t>
+  </si>
+  <si>
+    <t>Source Property - Coarse Aggregate - Weathering Resistance</t>
+  </si>
+  <si>
+    <t>Source Property - Skid Resistance</t>
+  </si>
+  <si>
+    <t>5. Chip Sealing - 5.2. Construction</t>
+  </si>
+  <si>
+    <t>Production Property - Cleaness Value</t>
+  </si>
+  <si>
+    <t>Production Property - Particle Size/Shape</t>
+  </si>
+  <si>
+    <t>Production Property - Broken Faces</t>
+  </si>
+  <si>
+    <t>Ensure limits of site are marked</t>
+  </si>
+  <si>
+    <t>Sweep surface clean of deleterious material</t>
+  </si>
+  <si>
+    <t>Record ATP's on site</t>
+  </si>
+  <si>
+    <t>Confirm correct treatment(s) and chip</t>
+  </si>
+  <si>
+    <t>Cutback Bitumen Blend</t>
+  </si>
+  <si>
+    <t>Bitumen Application Rate</t>
+  </si>
+  <si>
+    <t>Chip Application Rates</t>
+  </si>
+  <si>
+    <t>Rolling</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Post Sweeping</t>
+  </si>
+  <si>
+    <t>Linemarking and RRPM Reinstated</t>
+  </si>
+  <si>
+    <t>Post Construction Walkover</t>
+  </si>
+  <si>
+    <t>Resurfacing Construction Completion report</t>
+  </si>
+  <si>
+    <t>Chipseal Post-Verification Testing and Report</t>
+  </si>
+  <si>
+    <t>5. Chip Sealing - 5.3. Post Construction</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Austroads Guide to Road Design Part 3: Geometric Design, TNZ State Highway Geometric Design Manual</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Principal Approval</t>
+  </si>
+  <si>
+    <t>Method - Contractor and Principal peer review</t>
+  </si>
+  <si>
+    <t>Frequency - per design revision</t>
+  </si>
+  <si>
+    <t>Conduct - C or S</t>
+  </si>
+  <si>
+    <t>Produce Record - C</t>
+  </si>
+  <si>
+    <t>Approval - E</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Austroads Guide to Pavement Technology, New Zealand Guide to Pavement Evaluation and Treatment Design:2018 (Version 1.2)</t>
+  </si>
+  <si>
+    <t>Frequency - per design</t>
+  </si>
+  <si>
+    <t>Verifying Document - Approvals Register - SH30 Frosts - Pavement Rehabilitation Design Report</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Aggregate Sampling</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - NZS 4407:2015, WSP Rotorua Sampling Guide</t>
+  </si>
+  <si>
+    <t>Verifying Document - Sampling Worksheet</t>
+  </si>
+  <si>
+    <t>Approval - S</t>
+  </si>
+  <si>
+    <t>Controlling Documents - CBR - BOPE NOC Contract Documents Maintenance Specification Section 2.5.3</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Soaked CBR ≥ 40</t>
+  </si>
+  <si>
+    <t>Method - Soaked CBR test (NZS:4407:2015:3.15)</t>
+  </si>
+  <si>
+    <t>Responsible Person - Supervisor</t>
+  </si>
+  <si>
+    <t>Verifying Document - Test Report</t>
+  </si>
+  <si>
+    <t>Conduct - Sp or C or S</t>
+  </si>
+  <si>
+    <t>Produce Record - Sp or S</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Sand Equivalent - BOPE NOC Contract Documents Maintenance Specification Section 2.5.3</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Sand Equivalent &gt;35, OR &lt;35 but well graded with no more than 10% by mass passing through a 0.425mm sieve</t>
+  </si>
+  <si>
+    <t>Method - Sand Equivalent Test (NZS:4407:2015, 3.6)</t>
+  </si>
+  <si>
+    <t>Controlling Documents - NZS 4407:2015, WSP Rotorua Sampling Guide</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Crushing Resistance (3.3.1) - TNZ M/4: 2006, NZS 4407: 1991 Test 3.10 (The Crushing Resistance Test)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - less than 10% fines passing 2.36mm sieve size under a load of 130kN</t>
+  </si>
+  <si>
+    <t>Frequency - One test for every 10,000m³ of source material</t>
+  </si>
+  <si>
+    <t>Responsible Person - Quality Controller</t>
+  </si>
+  <si>
+    <t>Method - Crushing Resistance Test (NZS 4407:1991, Test 3.10)</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Weathering Quality Index (3.3.2) - TNZ M/4: 2006, NZS 4407: 1991, Test 3.11 (Weathering Quality Index Test)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - AA, AB, AC, BA, BB or CA</t>
+  </si>
+  <si>
+    <t>Method - Weathering Quality Index Test (NZS 4407: 1991, Test 3.11)</t>
+  </si>
+  <si>
+    <t>Controlling Documents - California Bearing Ratio (3.3.3) - TNZ M/4: 2006, NZS 4402: 1986 Test 4.1.3, NZS 4407: 1991 Test 3.15 (California Bearing Ratio Test)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Soaked CBR ≥ 80%</t>
+  </si>
+  <si>
+    <t>Method - California Bearing Ratio Test (NZS 4407: 1991, Test 3.15) after being compacted according to Vibrating Hammer Compaction Test at OWC (NZS 4402: 1986, Test 4.1.3)</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Sand Equivalent (4.2.1.1) - TNZ M/4: 2006, NZS 4407: 1991 Test 3.6 or Clay Index (4.2.1.2) - TNZ M/4: 2006, NZS 4407: 1991, Test 3.5 or Plasticity Index (4.2.1.3) - TNZ M/4: 2006, NZS 4407: 1991 Test 3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Sand Equivalent ≥40; or Clay Index ≤3; or Plasticity Index ≤5  </t>
+  </si>
+  <si>
+    <t>Method - Sand Equivalent Test (NZS:4407:2015, 3.6); or Clay Index Test (NZS:4407: 1991, 3.5); or Plasticity Index Test (NZS 4407:1991, 3.4)</t>
+  </si>
+  <si>
+    <t>Frequency - 2 Samples required as per Table 1, Production Property Test Sampling (4.1) - TNZ M/4: 2006</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Broken Face Content (4.2.2) - TNZ M/4: 2006, NZS:4407: 1991 Test 3.14</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Broken Face Content ≥70% between 37.5mm and 4.75mm sieve and ≥2 broken faces</t>
+  </si>
+  <si>
+    <t>Method - Broken Face Test (NZS:4407: 1991, Test 3.4)</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Particle Size Distribution (4.2.3) - TNZ M/4: 2006, NZS 4407: 1991 Test 3.8.1 (Wet Sieving Test)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Particle size distribution as per Table 2 and Table 3, 4.2.3 Particle Size Distribution</t>
+  </si>
+  <si>
+    <t>Method - Wet Sieving Test (NZS 4407: 1991, Test 3.8.1)</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Cement (4.1.2) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - GP</t>
+  </si>
+  <si>
+    <t>Method - Visual inspection of supplier docket</t>
+  </si>
+  <si>
+    <t>Frequency - per truck load</t>
+  </si>
+  <si>
+    <t>Verifying Document - Supplier Docket, Supplier Cert</t>
+  </si>
+  <si>
+    <t>Conduct - Sp or S</t>
+  </si>
+  <si>
+    <t>Approval - C</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Water (5.0.0) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Free from impurities justified by use of municipal water supply</t>
+  </si>
+  <si>
+    <t>Method - Visual inspection of hydrant use form</t>
+  </si>
+  <si>
+    <t>Verifying Document - Hydrant use form</t>
+  </si>
+  <si>
+    <t>Controlling Documents - TNZ  F7 Specification</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Details on Docket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method - Visual inspection </t>
+  </si>
+  <si>
+    <t>Frequency - Per Delivery</t>
+  </si>
+  <si>
+    <t>Verifying Document - MDS</t>
+  </si>
+  <si>
+    <t>Controlling Documents - As per NZTA list of approved materials/suppliers</t>
+  </si>
+  <si>
+    <t>Method - Visual inspection</t>
+  </si>
+  <si>
+    <t>Controlling Documents - TNZ B/5 section 7.5 &amp; 7.7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - To obtain OMC &amp; MDD </t>
+  </si>
+  <si>
+    <t>Method - NZS 4402, test 4.1.3, New Zealand vibrating hammer compaction test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency - Once on commencement and then each stablilised layer at one test per 5000m2 </t>
+  </si>
+  <si>
+    <t>Verifying Document - Test report</t>
+  </si>
+  <si>
+    <t>Conduct - C</t>
+  </si>
+  <si>
+    <t>Witness - C</t>
+  </si>
+  <si>
+    <t>Witness Point - Y</t>
+  </si>
+  <si>
+    <t>Controlling Documents - TNZ B/5 section 7.7</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - For info. and use in MDD calculation</t>
+  </si>
+  <si>
+    <t>Method - NZS 4407; test 3.7.1</t>
+  </si>
+  <si>
+    <t>Frequency - Once on commencement and if any materials chage</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Reference from Project Drawings</t>
+  </si>
+  <si>
+    <t>Method - Survey/Mobile Roads, Marks with Dazzle</t>
+  </si>
+  <si>
+    <t>Frequency - Chainages for every different pavement sections</t>
+  </si>
+  <si>
+    <t>Responsible Person - Subcontractor/ Engineer</t>
+  </si>
+  <si>
+    <t>Verifying Document - Construction drawings</t>
+  </si>
+  <si>
+    <t>Controlling Documents - ITP and QMP state what quality documentation is required</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Filled in and Signed ITP</t>
+  </si>
+  <si>
+    <t>Method - Visual inspection, recording and approval</t>
+  </si>
+  <si>
+    <t>Frequency - As per hold points in collaboration with the programme</t>
+  </si>
+  <si>
+    <t>Verifying Document - ITP and all referenced documents</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Site specifics to be confirmed</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Confirm scala acceptance criteria based on treatment type</t>
+  </si>
+  <si>
+    <t>Method - Scala Penetrometer on Excavation Floor</t>
+  </si>
+  <si>
+    <t>Frequency - As required</t>
+  </si>
+  <si>
+    <t>Verifying Document - Agreed treatment plan</t>
+  </si>
+  <si>
+    <t>Conduct - S</t>
+  </si>
+  <si>
+    <t>Produce Record - S</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Higgins SOP 0128 - Digout Repair</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 4-8% toward edge of seal</t>
+  </si>
+  <si>
+    <t>Method - Digital level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Document - Dig out QA form </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Scala &gt; 3 blows per 100mm</t>
+  </si>
+  <si>
+    <t>Method - Scala Penetrometer test on base of digout</t>
+  </si>
+  <si>
+    <t>Frequency - As required depending on size of digout</t>
+  </si>
+  <si>
+    <t>Conduct - S/C</t>
+  </si>
+  <si>
+    <t>Produce Record - S/C</t>
+  </si>
+  <si>
+    <t>Controlling Documents - TNZ F7 Specification</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Meet TNZ F7 Spec.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Certificate of conformance</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - On the list of approved materials/suppliers</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Clegg &gt; 45</t>
+  </si>
+  <si>
+    <t>Method - Clegg Test</t>
+  </si>
+  <si>
+    <t>Frequency - Min. 2 per digout</t>
+  </si>
+  <si>
+    <t>Controlling Documents - TNZ B/5 (section 7)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Evenly spread, no segregation, placed near optimium moisture content</t>
+  </si>
+  <si>
+    <t>Method - Visual Inspection</t>
+  </si>
+  <si>
+    <t>Frequency - On completion of placement</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photographs and Daily Site Record</t>
+  </si>
+  <si>
+    <t>Conduct - S or C</t>
+  </si>
+  <si>
+    <t>Produce Record - S or C</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Spreading of Cement (7.3) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Within ± 0.5 kg/m² of the specified rate and within ± 2.5% of the specified rate</t>
+  </si>
+  <si>
+    <t>Method - Mat test (1m² canvas) and Average Usage Test</t>
+  </si>
+  <si>
+    <t>Frequency - per 400m² and upon emptying the spreader</t>
+  </si>
+  <si>
+    <t>Verifying Document - Mat Test Form and truck dockets</t>
+  </si>
+  <si>
+    <t>Conduct - S or Sp</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Addition of Water (7.5) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 90-100% OWC</t>
+  </si>
+  <si>
+    <t>Method - Nuclear Densometer Testing prior to Stabilisation</t>
+  </si>
+  <si>
+    <t>Frequency - ≥1 per 1000m² lot</t>
+  </si>
+  <si>
+    <t>Verifying Document - NDM Record</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Control of cut depth (7.6.1) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - -5mm and +15mm of design stab depth</t>
+  </si>
+  <si>
+    <t>Method - Physical Measure and Visual Record</t>
+  </si>
+  <si>
+    <t>Frequency - ≥1 per 200m of cut length</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Overlap on longitudinal joints (7.6.2) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The greater of 100m or 50% of layer thickness</t>
+  </si>
+  <si>
+    <t>Method - Visual Record</t>
+  </si>
+  <si>
+    <t>Frequency - per sucessive cut</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photographs, Daily Site Record and Stabilising Plan</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Continuity of stabilised layer (7.6.3) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Longitudinal overlap 1m for cement, 5m for bituminous stabilising agents</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Particle size distribution of stabilised material (7.6.4) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Frequency - within 20m of each section and then regularly based on material variability</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photographs</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - No excessive breakdown of stabilised material</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Higgins 'Interim Pavement Layer Compaction Guide' - Technical Note, Compaction (7.7) - TNZ B/5: 2008, Acceptance criteria for stabilised pavement layer compaction (7.7.1) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - To provide MDD for NDM testing</t>
+  </si>
+  <si>
+    <t>Method - Plateau Density Testing</t>
+  </si>
+  <si>
+    <t>Frequency - Minimum once per Lot.  A lot shall not exceed 1000 m2.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Test Record</t>
+  </si>
+  <si>
+    <t>Frequency - Minimum once per Lot. A lot shall not exceed 1000 m2.</t>
+  </si>
+  <si>
+    <t>Degree of Compaction MDD to obtain target for NDM testing (1)</t>
+  </si>
+  <si>
+    <t>Degree of Compaction MDD to obtain target for NDM testing (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method - Laboratory MDD at OMC NZS 4402 test 4.1.3. </t>
+  </si>
+  <si>
+    <t>Frequency - Minimum once per Lot. A lot shall not exceed 5000 m2.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Formally agree with the Engineer the MDD target, based on review of the lab. MDD and the site plateau test</t>
+  </si>
+  <si>
+    <t>Method - Plateau Density Testing Lab. MDD</t>
+  </si>
+  <si>
+    <t>Frequency - At commencement of construction and whenever materials change</t>
+  </si>
+  <si>
+    <t>Verifying Document - Notice to Contractor/ Notice to Engineer</t>
+  </si>
+  <si>
+    <t>Responsible Person - Quality Controller Engineer</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Acceptance criteria for stabilised pavement layer compaction (7.7.1) and Table 5 - TNZ B/5: 2008, Acceptance criteria for pavement layer compaction (7.6) - TNZ B/2: 2005</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Mean value ≥ 98% and Minimum Value ≥ 95%</t>
+  </si>
+  <si>
+    <t>Method - Nuclear Densometer Testing</t>
+  </si>
+  <si>
+    <t>Frequency - ≥ 5 tests per 1000m² lot</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Control testing during and after construction (7.7.2) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Nil</t>
+  </si>
+  <si>
+    <t>Method - Vibrating Hammer Compaction Test at OWC (NZS 4402: 1986, Test 4.1.3)</t>
+  </si>
+  <si>
+    <t>Frequency - when agreed with the Engineer</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Surface shape (7.8) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Method - 3m Straight Edge</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - ± 10mm deviation along a 3m straight edge, No water ponding</t>
+  </si>
+  <si>
+    <t>Frequency - during construction and prior to seal</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Between -5mm and +15mm</t>
+  </si>
+  <si>
+    <t>Method - String lines or Survey Asbuilt</t>
+  </si>
+  <si>
+    <t>Verifying Document - String Sheet/Survey Asbuilts</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Crossfall (7.9) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 0.5% ≤ X ≤ -0.5%</t>
+  </si>
+  <si>
+    <t>Method - 3m straight edge or Survey Asbuilt</t>
+  </si>
+  <si>
+    <t>Verifying Document - Cross Fall Records/Survey Asbuilts</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Surface finish (7.10) - TNZ B/5: 2008</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Tightly bound matrix post sweep</t>
+  </si>
+  <si>
+    <t>Frequency - prior to seal</t>
+  </si>
+  <si>
+    <t>Verifying Document - Pre-seal inspection sheet</t>
+  </si>
+  <si>
+    <t>Witness - C and E</t>
+  </si>
+  <si>
+    <t>Produce Record - C or S</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Pre-sealing requirements (7.12) - TNZ B/5: 2008, Pre-sealing requirements (9) - TNZ B/2 Notes: 2005</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - ≤80%, however 65% is ideal</t>
+  </si>
+  <si>
+    <t>Frequency -  ≥5 tests per 1000m² lot</t>
+  </si>
+  <si>
+    <t>Witness - E</t>
+  </si>
+  <si>
+    <t>Controlling Documents - NZTA Maintainence specification section 6.1.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - For chipseal or non structural  AC surfacing; No 100m moving average shall exceed 2.9 lane IRI.qc m/km 75 NAASRA counts/km</t>
+  </si>
+  <si>
+    <t>Method - NZTA Maintainence specification section 6.1.2</t>
+  </si>
+  <si>
+    <t>Frequency - Average of three replica runs for each lane reported at 20m intervals.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Test Records</t>
+  </si>
+  <si>
+    <t>Controlling Documents - TNZ M/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Table 1 </t>
+  </si>
+  <si>
+    <t>Method - Property Test</t>
+  </si>
+  <si>
+    <t>Frequency - Annual</t>
+  </si>
+  <si>
+    <t>Responsible Person - Bitumen Supplier/ Surfacing Project Manager</t>
+  </si>
+  <si>
+    <t>Verifying Document - IANZ Report's</t>
+  </si>
+  <si>
+    <t>Approval - N</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Higgins Internal Specification</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - % PMB Required, PH, Residue by Evaporation, Viscosity</t>
+  </si>
+  <si>
+    <t>Frequency - 1/100,000 litres supplied</t>
+  </si>
+  <si>
+    <t>Controlling Documents - TNZ M6, RNZ 9805:2009</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - &lt;10% fines under 230kN minimum</t>
+  </si>
+  <si>
+    <t>Method - Sample Test - Crushing Resistance NZS 4407 Test 3.10</t>
+  </si>
+  <si>
+    <t>Frequency - 1 test per 10,000m³ or 1 test per annum if less than 10,000m³ produced per annum</t>
+  </si>
+  <si>
+    <t>Responsible Person - Surfacing Project Manager</t>
+  </si>
+  <si>
+    <t>Verifying Document - EBOP NOC Design Report Acceptance</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - AA or BA</t>
+  </si>
+  <si>
+    <t>Method - Weathering Quality Index NZS 4407 Test 3.10</t>
+  </si>
+  <si>
+    <t>Controlling Documents - NZTA T/10</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Meet Skid performance Requirement</t>
+  </si>
+  <si>
+    <t>Frequency - Each Site</t>
+  </si>
+  <si>
+    <t>Method - Aggregate Perfomance Method TNZ T/10 section 12.3</t>
+  </si>
+  <si>
+    <t>Controlling Documents - NZTA P/17, M/6</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - G2 - 89 min, G3 - 87 min, G4 - 85 min</t>
+  </si>
+  <si>
+    <t>Method - Sample Test - Cleaness Value NZS 4407 Test 3.9</t>
+  </si>
+  <si>
+    <t>Frequency - Per Stockpile</t>
+  </si>
+  <si>
+    <t>○ &lt;100m3 - 1 Sample</t>
+  </si>
+  <si>
+    <t>○ 100-500m3 - 2 Samples</t>
+  </si>
+  <si>
+    <t>○ &gt;500m3 - 3 Samples</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - As per Table 3 NZTA M/6</t>
+  </si>
+  <si>
+    <t>Method - Sample Test - Particle Size/Shape NZS 4407 Test 3.13</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Min. 98%</t>
+  </si>
+  <si>
+    <t>Method - Sample Test - Broken Faces NZS 4407 Test 3.14</t>
+  </si>
+  <si>
+    <t>Controlling Documents - EBOP NOC Design Report, Chipsealing in NZ, NZTA P/17</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Client Approval</t>
+  </si>
+  <si>
+    <t>Method - Review</t>
+  </si>
+  <si>
+    <t>Controlling Documents - EBOP NOC Design Report</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Visual Inspection</t>
+  </si>
+  <si>
+    <t>Method - Visual</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to start sealing each site</t>
+  </si>
+  <si>
+    <t>Responsible Person - Surfacing Supervisor</t>
+  </si>
+  <si>
+    <t>Verifying Document - Chip Sealing Quality and Site Record</t>
+  </si>
+  <si>
+    <t>Controlling Documents - P/17</t>
+  </si>
+  <si>
+    <t>Frequency - Each site, prior to start of sealing</t>
+  </si>
+  <si>
+    <t>Controlling Documents - N/A</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Details/chip correct</t>
+  </si>
+  <si>
+    <t>Controlling Documents - RNZ 9803_0513</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - +/- 2PPH Cutter, +ve for Adhesion agent presence</t>
+  </si>
+  <si>
+    <t>Method - Sample and test</t>
+  </si>
+  <si>
+    <t>Frequency - 1 Sample per Per Sprayer load, tested at frequency of 1 per 100,000l sprayed</t>
+  </si>
+  <si>
+    <t>Responsible Person - Surfacing Project Manager, Surfacing Supervisor</t>
+  </si>
+  <si>
+    <t>Controlling Documents - E/2 Certificate, Seal Design / Spray Instruction</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Current E/2 Certificate, +/- 4% per Spray Run</t>
+  </si>
+  <si>
+    <t>Method - Test, Review</t>
+  </si>
+  <si>
+    <t>Frequency - Per Sprayer, Per Site</t>
+  </si>
+  <si>
+    <t>Verifying Document - E/2 Certificate. Spray Sheets</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - As per Chipping Guide</t>
+  </si>
+  <si>
+    <t>Verifying Document - Chip application check sheet. Chip Sealing Quality and Site Record</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Minimum as per CS in NZ - Bit volume / 3600</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Site including adjacent surfaces free of loose chip</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Chipsealing in New Zealand</t>
+  </si>
+  <si>
+    <t>Verifying Document - Site Record</t>
+  </si>
+  <si>
+    <t>Controlling Documents - MOTSAM</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Matches previous linemarking - within 48hours of sealing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Formal Agreement</t>
+  </si>
+  <si>
+    <t>Frequency - Post seal sweep</t>
+  </si>
+  <si>
+    <t>Responsible Person - Quality Controller, Supervisor and Engineer</t>
+  </si>
+  <si>
+    <t>Verifying Document - Meeting Minutes</t>
+  </si>
+  <si>
+    <t>Witness - C, S and E</t>
+  </si>
+  <si>
+    <t>Controlling Documents - NOC; MS 6.1.3</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Comply with Requirement of NOC MS 6.1.3</t>
+  </si>
+  <si>
+    <t>Method - Record</t>
+  </si>
+  <si>
+    <t>Frequency - Within 2 months of completing the annual resurfacing programme</t>
+  </si>
+  <si>
+    <t>Responsible Person - Surfacing Manager</t>
+  </si>
+  <si>
+    <t>Verifying Document - Construction Completion Report</t>
+  </si>
+  <si>
+    <t>Verifying Document - Chipseal Post-Verification Testing and Report</t>
+  </si>
+  <si>
+    <t>Controlling Documents - Pavement Rehabilitation Construction Completion Report (6.1.2) - BOPE 2_14-001_601 Maintenance Specification</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Engineer Approval</t>
+  </si>
+  <si>
+    <t>Frequency - ≤2 months of 1st Coat Seal</t>
+  </si>
+  <si>
+    <t>Responsible Person - Quality Controller/ Contract Manager</t>
+  </si>
+  <si>
+    <t>Verifying Document - Signed Report</t>
+  </si>
+  <si>
+    <t>3e13ce65-fceb-4370-8c3c-95bfb00d12a9</t>
   </si>
 </sst>
 </file>
@@ -336,7 +1260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +1456,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -693,13 +1623,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1057,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I756"/>
+  <dimension ref="A1:I766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +2052,9 @@
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1133,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1141,7 +2077,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1149,7 +2085,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1157,7 +2093,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1165,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,31 +2125,31 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
+      <c r="A12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1221,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1229,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,7 +2181,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +2189,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,31 +2205,31 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
+      <c r="A22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +2237,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1309,7 +2245,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,15 +2261,15 @@
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +2277,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +2293,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,15 +2301,15 @@
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>28</v>
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +2317,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1397,23 +2333,23 @@
         <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>19</v>
+      <c r="A38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +2357,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +2365,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +2373,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,15 +2381,15 @@
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>33</v>
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +2397,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +2405,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,22 +2413,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>19</v>
+      <c r="A48" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1501,7 +2437,7 @@
         <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,15 +2445,15 @@
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>23</v>
+      <c r="A52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,23 +2461,23 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>29</v>
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>16</v>
+      <c r="B55" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +2493,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,31 +2525,31 @@
         <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>30</v>
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +2557,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +2565,7 @@
         <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +2581,7 @@
         <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,15 +2613,15 @@
         <v>11</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>24</v>
+      <c r="A73" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,15 +2629,15 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>16</v>
+      <c r="B75" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +2645,7 @@
         <v>11</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +2653,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +2661,7 @@
         <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +2669,7 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +2677,7 @@
         <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +2685,7 @@
         <v>11</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,31 +2701,31 @@
         <v>11</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>16</v>
+      <c r="B85" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>17</v>
+      <c r="B86" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +2733,7 @@
         <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +2749,7 @@
         <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +2757,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,7 +2773,7 @@
         <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,31 +2781,31 @@
         <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>17</v>
+      <c r="B96" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +2821,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +2845,7 @@
         <v>11</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +2853,7 @@
         <v>11</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,15 +2861,15 @@
         <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>35</v>
+      <c r="A104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,23 +2877,23 @@
         <v>11</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>17</v>
+      <c r="A106" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>18</v>
+      <c r="A107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,7 +2917,7 @@
         <v>11</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +2925,7 @@
         <v>11</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +2933,7 @@
         <v>11</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,15 +2941,15 @@
         <v>11</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>36</v>
+      <c r="A114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2021,7 +2957,7 @@
         <v>11</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2029,23 +2965,23 @@
         <v>11</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>18</v>
+      <c r="A117" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>19</v>
+      <c r="A118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2989,7 @@
         <v>11</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2061,7 +2997,7 @@
         <v>11</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2069,7 +3005,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,15 +3021,15 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>37</v>
+      <c r="A124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2101,7 +3037,7 @@
         <v>11</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2117,23 +3053,23 @@
         <v>11</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>19</v>
+      <c r="A128" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>20</v>
+      <c r="A129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,7 +3077,7 @@
         <v>11</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2149,7 +3085,7 @@
         <v>11</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2157,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,15 +3101,15 @@
         <v>11</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>38</v>
+      <c r="A134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2181,7 +3117,7 @@
         <v>11</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2189,7 +3125,7 @@
         <v>11</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +3133,7 @@
         <v>11</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2205,23 +3141,23 @@
         <v>11</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>20</v>
+      <c r="A139" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>21</v>
+      <c r="A140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +3165,7 @@
         <v>11</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2237,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,15 +3181,15 @@
         <v>11</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>40</v>
+      <c r="A144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,7 +3197,7 @@
         <v>11</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,7 +3205,7 @@
         <v>11</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,7 +3221,7 @@
         <v>11</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,23 +3229,23 @@
         <v>11</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>21</v>
+      <c r="A150" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>22</v>
+      <c r="A151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +3253,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,15 +3261,15 @@
         <v>11</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>39</v>
+      <c r="A154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +3285,7 @@
         <v>11</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +3293,7 @@
         <v>11</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,7 +3301,7 @@
         <v>11</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,55 +3317,55 @@
         <v>11</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>22</v>
+      <c r="A161" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>23</v>
+      <c r="A162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>24</v>
+      <c r="A163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>41</v>
+      <c r="A164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>42</v>
+      <c r="A165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>16</v>
+      <c r="B166" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +3381,7 @@
         <v>11</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +3389,7 @@
         <v>11</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2469,7 +3405,7 @@
         <v>11</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2485,23 +3421,23 @@
         <v>11</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>24</v>
+      <c r="A174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>43</v>
+      <c r="A175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +3445,7 @@
         <v>11</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,7 +3453,7 @@
         <v>11</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +3461,7 @@
         <v>11</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +3469,7 @@
         <v>11</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +3485,7 @@
         <v>11</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,7 +3493,7 @@
         <v>11</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2565,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2573,7 +3509,7 @@
         <v>11</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,15 +3517,15 @@
         <v>10</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>16</v>
+      <c r="B186" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,7 +3541,7 @@
         <v>11</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2613,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +3557,7 @@
         <v>11</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,31 +3573,31 @@
         <v>11</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>23</v>
+      <c r="A193" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>24</v>
+      <c r="A194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>45</v>
+      <c r="A195" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +3605,7 @@
         <v>11</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +3613,7 @@
         <v>11</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +3629,7 @@
         <v>11</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +3637,7 @@
         <v>11</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +3645,7 @@
         <v>11</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,15 +3661,15 @@
         <v>11</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>24</v>
+      <c r="A204" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +3677,7 @@
         <v>9</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +3685,7 @@
         <v>10</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +3693,7 @@
         <v>11</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +3701,7 @@
         <v>11</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +3725,7 @@
         <v>11</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +3733,7 @@
         <v>11</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,7 +3741,7 @@
         <v>11</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +3749,7 @@
         <v>11</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,31 +3757,31 @@
         <v>11</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B216" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>17</v>
+      <c r="B218" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2861,7 +3797,7 @@
         <v>11</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2869,7 +3805,7 @@
         <v>11</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +3813,7 @@
         <v>11</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +3821,7 @@
         <v>11</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,15 +3837,15 @@
         <v>11</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>49</v>
+      <c r="A226" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +3853,7 @@
         <v>11</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,15 +3869,15 @@
         <v>11</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>19</v>
+      <c r="A230" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +3885,7 @@
         <v>11</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +3893,7 @@
         <v>11</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +3909,7 @@
         <v>11</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,15 +3917,15 @@
         <v>11</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>50</v>
+      <c r="A236" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3005,7 +3941,7 @@
         <v>11</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3949,7 @@
         <v>11</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,23 +3957,23 @@
         <v>11</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>20</v>
+      <c r="A241" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>21</v>
+      <c r="A242" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3981,7 @@
         <v>11</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3989,7 @@
         <v>11</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,15 +3997,15 @@
         <v>11</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>51</v>
+      <c r="A246" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +4013,7 @@
         <v>11</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +4021,7 @@
         <v>11</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +4029,7 @@
         <v>11</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +4037,7 @@
         <v>11</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +4045,7 @@
         <v>11</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,15 +4053,15 @@
         <v>11</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>22</v>
+      <c r="A253" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +4069,7 @@
         <v>11</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,15 +4077,15 @@
         <v>11</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>52</v>
+      <c r="A256" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +4093,7 @@
         <v>11</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +4101,7 @@
         <v>11</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +4109,7 @@
         <v>11</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +4117,7 @@
         <v>11</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,15 +4141,15 @@
         <v>11</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>23</v>
+      <c r="A264" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,23 +4157,23 @@
         <v>11</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>53</v>
+      <c r="A266" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>54</v>
+      <c r="A267" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +4189,7 @@
         <v>11</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +4197,7 @@
         <v>11</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +4205,7 @@
         <v>11</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +4213,7 @@
         <v>11</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,7 +4221,7 @@
         <v>11</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3293,23 +4229,23 @@
         <v>11</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>23</v>
+      <c r="A275" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>24</v>
+      <c r="A276" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3317,7 +4253,7 @@
         <v>10</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,7 +4269,7 @@
         <v>11</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,7 +4277,7 @@
         <v>11</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -3349,7 +4285,7 @@
         <v>11</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -3357,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +4301,7 @@
         <v>11</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +4309,7 @@
         <v>11</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -3381,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -3389,23 +4325,23 @@
         <v>11</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>16</v>
+      <c r="B288" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,7 +4349,7 @@
         <v>11</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +4357,7 @@
         <v>11</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,7 +4365,7 @@
         <v>11</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +4373,7 @@
         <v>11</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +4381,7 @@
         <v>11</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +4389,7 @@
         <v>11</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +4397,7 @@
         <v>11</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,37 +4405,39 @@
         <v>11</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B297" s="4"/>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>17</v>
+      <c r="B299" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>18</v>
+      <c r="B300" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -3507,7 +4445,7 @@
         <v>11</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -3515,7 +4453,7 @@
         <v>11</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -3523,7 +4461,7 @@
         <v>11</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -3531,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -3539,7 +4477,7 @@
         <v>11</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -3547,21 +4485,23 @@
         <v>11</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B307" s="4"/>
+      <c r="A307" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -3569,15 +4509,15 @@
         <v>11</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>18</v>
+      <c r="A310" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,7 +4525,7 @@
         <v>11</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,7 +4533,7 @@
         <v>11</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +4541,7 @@
         <v>11</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +4549,7 @@
         <v>11</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +4557,7 @@
         <v>11</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,21 +4565,23 @@
         <v>11</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B317" s="4"/>
+      <c r="A317" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,7 +4589,7 @@
         <v>11</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -3655,15 +4597,15 @@
         <v>11</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>19</v>
+      <c r="A321" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -3671,7 +4613,7 @@
         <v>11</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,7 +4621,7 @@
         <v>11</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -3687,7 +4629,7 @@
         <v>11</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,7 +4637,7 @@
         <v>11</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3703,21 +4645,23 @@
         <v>11</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B327" s="4"/>
+      <c r="A327" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3725,7 +4669,7 @@
         <v>11</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,7 +4677,7 @@
         <v>11</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3741,15 +4685,15 @@
         <v>11</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>20</v>
+      <c r="A332" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3757,7 +4701,7 @@
         <v>11</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3765,7 +4709,7 @@
         <v>11</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3773,7 +4717,7 @@
         <v>11</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3781,21 +4725,23 @@
         <v>11</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B337" s="4"/>
+      <c r="A337" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3803,7 +4749,7 @@
         <v>11</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3811,7 +4757,7 @@
         <v>11</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3819,7 +4765,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3827,15 +4773,15 @@
         <v>11</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>21</v>
+      <c r="A343" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3843,7 +4789,7 @@
         <v>11</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3851,7 +4797,7 @@
         <v>11</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3859,21 +4805,23 @@
         <v>11</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B347" s="4"/>
+      <c r="A347" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3881,7 +4829,7 @@
         <v>11</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3889,7 +4837,7 @@
         <v>11</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3897,7 +4845,7 @@
         <v>11</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3905,7 +4853,7 @@
         <v>11</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3913,15 +4861,15 @@
         <v>11</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>22</v>
+      <c r="A354" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3929,7 +4877,7 @@
         <v>11</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,21 +4885,23 @@
         <v>11</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B357" s="4"/>
+      <c r="A357" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3959,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3967,7 +4917,7 @@
         <v>11</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3975,7 +4925,7 @@
         <v>11</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3983,7 +4933,7 @@
         <v>11</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,7 +4941,7 @@
         <v>11</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3999,15 +4949,15 @@
         <v>11</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>23</v>
+      <c r="A365" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,29 +4965,31 @@
         <v>11</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B367" s="4"/>
+      <c r="A367" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>17</v>
+      <c r="B369" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4045,7 +4997,7 @@
         <v>11</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +5005,7 @@
         <v>11</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,7 +5013,7 @@
         <v>11</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +5021,7 @@
         <v>11</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +5029,7 @@
         <v>11</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4085,29 +5037,31 @@
         <v>11</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>24</v>
+      <c r="A376" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B377" s="4"/>
+      <c r="A377" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4115,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4123,7 +5077,7 @@
         <v>11</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4131,7 +5085,7 @@
         <v>11</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4139,7 +5093,7 @@
         <v>11</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4147,7 +5101,7 @@
         <v>11</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4155,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4163,7 +5117,7 @@
         <v>11</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -4171,21 +5125,23 @@
         <v>11</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B387" s="4"/>
+      <c r="B387" s="4" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -4193,7 +5149,7 @@
         <v>11</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -4201,7 +5157,7 @@
         <v>11</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4209,15 +5165,15 @@
         <v>11</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>20</v>
+      <c r="B392" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4225,7 +5181,7 @@
         <v>11</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4233,7 +5189,7 @@
         <v>11</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -4241,7 +5197,7 @@
         <v>11</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,21 +5205,23 @@
         <v>11</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="4" t="s">
+      <c r="A397" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B397" s="4"/>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>16</v>
+      <c r="B398" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -4271,7 +5229,7 @@
         <v>11</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -4279,7 +5237,7 @@
         <v>11</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -4287,7 +5245,7 @@
         <v>11</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -4295,7 +5253,7 @@
         <v>11</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -4303,7 +5261,7 @@
         <v>11</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -4311,7 +5269,7 @@
         <v>11</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -4319,7 +5277,7 @@
         <v>11</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -4327,29 +5285,31 @@
         <v>11</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="4" t="s">
+      <c r="A407" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B407" s="4"/>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>17</v>
+      <c r="B409" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,7 +5317,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -4365,7 +5325,7 @@
         <v>11</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -4373,7 +5333,7 @@
         <v>11</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -4381,7 +5341,7 @@
         <v>11</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -4389,7 +5349,7 @@
         <v>11</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +5357,7 @@
         <v>11</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -4405,29 +5365,31 @@
         <v>11</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B417" s="4"/>
+      <c r="A417" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>17</v>
+      <c r="A419" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -4435,7 +5397,7 @@
         <v>11</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -4443,7 +5405,7 @@
         <v>11</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -4451,7 +5413,7 @@
         <v>11</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -4459,7 +5421,7 @@
         <v>11</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -4467,7 +5429,7 @@
         <v>11</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -4475,7 +5437,7 @@
         <v>11</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -4483,37 +5445,39 @@
         <v>11</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B427" s="4"/>
+      <c r="A427" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>17</v>
+      <c r="A429" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>18</v>
+      <c r="A430" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -4521,7 +5485,7 @@
         <v>11</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -4529,7 +5493,7 @@
         <v>11</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -4537,7 +5501,7 @@
         <v>11</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -4545,7 +5509,7 @@
         <v>11</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -4553,7 +5517,7 @@
         <v>11</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -4561,21 +5525,23 @@
         <v>11</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>24</v>
+        <v>263</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B437" s="4"/>
+      <c r="A437" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -4583,23 +5549,23 @@
         <v>11</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>18</v>
+      <c r="A440" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>19</v>
+      <c r="A441" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -4607,7 +5573,7 @@
         <v>11</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -4615,7 +5581,7 @@
         <v>11</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -4623,7 +5589,7 @@
         <v>11</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -4631,7 +5597,7 @@
         <v>11</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -4639,21 +5605,23 @@
         <v>11</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B447" s="4"/>
+      <c r="A447" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -4661,7 +5629,7 @@
         <v>11</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -4669,7 +5637,7 @@
         <v>11</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,23 +5645,23 @@
         <v>11</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>20</v>
+      <c r="A452" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>21</v>
+      <c r="A453" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4701,7 +5669,7 @@
         <v>11</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,7 +5677,7 @@
         <v>11</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,21 +5685,23 @@
         <v>11</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B457" s="4"/>
+      <c r="A457" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4739,7 +5709,7 @@
         <v>11</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4747,7 +5717,7 @@
         <v>11</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4755,7 +5725,7 @@
         <v>11</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4763,7 +5733,7 @@
         <v>11</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>20</v>
+        <v>273</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4771,23 +5741,23 @@
         <v>11</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>22</v>
+      <c r="A464" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>23</v>
+      <c r="A465" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4795,21 +5765,23 @@
         <v>11</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>24</v>
+        <v>274</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B467" s="4"/>
+      <c r="A467" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4817,7 +5789,7 @@
         <v>11</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4825,7 +5797,7 @@
         <v>11</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4833,7 +5805,7 @@
         <v>11</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -4841,7 +5813,7 @@
         <v>11</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4849,7 +5821,7 @@
         <v>11</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>21</v>
+        <v>277</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -4857,7 +5829,7 @@
         <v>11</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -4865,29 +5837,31 @@
         <v>11</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>24</v>
+      <c r="A476" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B477" s="4"/>
+      <c r="B477" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -4895,7 +5869,7 @@
         <v>11</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4903,7 +5877,7 @@
         <v>11</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -4911,7 +5885,7 @@
         <v>11</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4919,7 +5893,7 @@
         <v>11</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -4927,7 +5901,7 @@
         <v>11</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4935,7 +5909,7 @@
         <v>11</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -4943,7 +5917,7 @@
         <v>11</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4951,37 +5925,39 @@
         <v>11</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="4" t="s">
+      <c r="A487" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B487" s="4"/>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>18</v>
+      <c r="B490" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -4989,7 +5965,7 @@
         <v>11</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,7 +5973,7 @@
         <v>11</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>20</v>
+        <v>284</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -5005,7 +5981,7 @@
         <v>11</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -5013,7 +5989,7 @@
         <v>11</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -5021,7 +5997,7 @@
         <v>11</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>23</v>
+        <v>287</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,21 +6005,23 @@
         <v>11</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B497" s="4"/>
+      <c r="A497" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -5051,7 +6029,7 @@
         <v>11</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -5059,15 +6037,15 @@
         <v>11</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>19</v>
+      <c r="A501" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -5075,7 +6053,7 @@
         <v>11</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -5083,7 +6061,7 @@
         <v>11</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -5091,7 +6069,7 @@
         <v>11</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -5099,7 +6077,7 @@
         <v>11</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>23</v>
+        <v>292</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -5107,21 +6085,23 @@
         <v>11</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>24</v>
+        <v>287</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B507" s="4"/>
+      <c r="A507" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -5129,7 +6109,7 @@
         <v>11</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -5137,7 +6117,7 @@
         <v>11</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>18</v>
+        <v>289</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -5145,15 +6125,15 @@
         <v>11</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>20</v>
+      <c r="A512" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -5161,7 +6141,7 @@
         <v>11</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -5169,7 +6149,7 @@
         <v>11</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -5177,7 +6157,7 @@
         <v>11</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -5185,21 +6165,23 @@
         <v>11</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B517" s="4"/>
+      <c r="A517" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -5207,7 +6189,7 @@
         <v>11</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -5215,7 +6197,7 @@
         <v>11</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -5223,23 +6205,23 @@
         <v>11</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>19</v>
+        <v>289</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>20</v>
+      <c r="A522" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>21</v>
+      <c r="A523" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -5247,7 +6229,7 @@
         <v>11</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -5255,29 +6237,31 @@
         <v>11</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>24</v>
+      <c r="B526" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B527" s="4"/>
+      <c r="A527" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -5285,7 +6269,7 @@
         <v>11</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>17</v>
+        <v>288</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -5293,7 +6277,7 @@
         <v>11</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -5301,7 +6285,7 @@
         <v>11</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,23 +6293,23 @@
         <v>11</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>21</v>
+      <c r="A533" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>22</v>
+      <c r="A534" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -5333,7 +6317,7 @@
         <v>11</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -5341,21 +6325,23 @@
         <v>11</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B537" s="4"/>
+      <c r="A537" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B537" s="7" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -5363,7 +6349,7 @@
         <v>11</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>17</v>
+        <v>297</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -5371,7 +6357,7 @@
         <v>11</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -5379,7 +6365,7 @@
         <v>11</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -5387,7 +6373,7 @@
         <v>11</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -5395,23 +6381,23 @@
         <v>11</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>22</v>
+      <c r="A544" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>23</v>
+      <c r="A545" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -5419,21 +6405,23 @@
         <v>11</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B547" s="4"/>
+      <c r="A547" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B548" s="1" t="s">
-        <v>16</v>
+      <c r="B548" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -5441,7 +6429,7 @@
         <v>11</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -5449,7 +6437,7 @@
         <v>11</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -5457,7 +6445,7 @@
         <v>11</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -5465,7 +6453,7 @@
         <v>11</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -5473,7 +6461,7 @@
         <v>11</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -5481,7 +6469,7 @@
         <v>11</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>22</v>
+        <v>288</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -5489,7 +6477,7 @@
         <v>11</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -5497,29 +6485,31 @@
         <v>11</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="4" t="s">
+      <c r="A557" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B557" s="4"/>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>17</v>
+      <c r="B559" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -5527,7 +6517,7 @@
         <v>11</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -5535,15 +6525,15 @@
         <v>11</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B562" s="1" t="s">
-        <v>20</v>
+      <c r="B562" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -5551,7 +6541,7 @@
         <v>11</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -5559,7 +6549,7 @@
         <v>11</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>22</v>
+        <v>309</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -5567,7 +6557,7 @@
         <v>11</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -5575,21 +6565,23 @@
         <v>11</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B567" s="4"/>
+      <c r="A567" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -5597,7 +6589,7 @@
         <v>11</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,7 +6597,7 @@
         <v>11</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -5613,23 +6605,23 @@
         <v>11</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>19</v>
+        <v>289</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>20</v>
+      <c r="A572" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>21</v>
+      <c r="A573" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B573" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -5637,7 +6629,7 @@
         <v>11</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>22</v>
+        <v>305</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -5645,7 +6637,7 @@
         <v>11</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -5653,21 +6645,23 @@
         <v>11</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B577" s="4"/>
+      <c r="A577" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -5675,7 +6669,7 @@
         <v>11</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -5683,7 +6677,7 @@
         <v>11</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -5691,7 +6685,7 @@
         <v>11</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>19</v>
+        <v>297</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -5699,7 +6693,7 @@
         <v>11</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>20</v>
+        <v>288</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -5707,7 +6701,7 @@
         <v>11</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -5715,7 +6709,7 @@
         <v>11</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -5723,29 +6717,31 @@
         <v>11</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B586" s="1" t="s">
-        <v>24</v>
+      <c r="A586" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B586" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B587" s="4"/>
+      <c r="B587" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -5753,7 +6749,7 @@
         <v>11</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -5761,7 +6757,7 @@
         <v>11</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -5769,7 +6765,7 @@
         <v>11</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -5777,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -5785,7 +6781,7 @@
         <v>11</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -5793,7 +6789,7 @@
         <v>11</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -5801,7 +6797,7 @@
         <v>11</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -5809,29 +6805,31 @@
         <v>11</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="4" t="s">
+      <c r="A597" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B597" s="4"/>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B598" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>17</v>
+      <c r="B599" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -5839,7 +6837,7 @@
         <v>11</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>18</v>
+        <v>319</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -5847,7 +6845,7 @@
         <v>11</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -5855,7 +6853,7 @@
         <v>11</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>20</v>
+        <v>321</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -5863,7 +6861,7 @@
         <v>11</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -5871,7 +6869,7 @@
         <v>11</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -5879,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -5887,21 +6885,23 @@
         <v>11</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B607" s="4"/>
+      <c r="A607" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -5909,15 +6909,15 @@
         <v>11</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B610" s="1" t="s">
-        <v>18</v>
+      <c r="A610" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -5925,7 +6925,7 @@
         <v>11</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>19</v>
+        <v>325</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -5933,7 +6933,7 @@
         <v>11</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>20</v>
+        <v>320</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -5941,7 +6941,7 @@
         <v>11</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>21</v>
+        <v>321</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -5949,7 +6949,7 @@
         <v>11</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -5957,7 +6957,7 @@
         <v>11</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -5965,21 +6965,23 @@
         <v>11</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B617" s="4"/>
+      <c r="A617" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -5987,7 +6989,7 @@
         <v>11</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -5995,15 +6997,15 @@
         <v>11</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>19</v>
+      <c r="A621" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -6011,7 +7013,7 @@
         <v>11</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>20</v>
+        <v>327</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -6019,7 +7021,7 @@
         <v>11</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -6027,7 +7029,7 @@
         <v>11</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>22</v>
+        <v>321</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -6035,7 +7037,7 @@
         <v>11</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -6043,21 +7045,23 @@
         <v>11</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B627" s="4"/>
+      <c r="A627" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -6065,7 +7069,7 @@
         <v>11</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -6073,7 +7077,7 @@
         <v>11</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -6081,15 +7085,15 @@
         <v>11</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>20</v>
+      <c r="A632" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -6097,7 +7101,7 @@
         <v>11</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -6105,7 +7109,7 @@
         <v>11</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -6113,7 +7117,7 @@
         <v>11</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>23</v>
+        <v>321</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -6121,21 +7125,23 @@
         <v>11</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B637" s="4"/>
+      <c r="A637" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>16</v>
+        <v>324</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -6143,7 +7149,7 @@
         <v>11</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -6151,7 +7157,7 @@
         <v>11</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -6159,23 +7165,23 @@
         <v>11</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>20</v>
+      <c r="A642" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B642" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>21</v>
+      <c r="A643" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -6183,7 +7189,7 @@
         <v>11</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>22</v>
+        <v>329</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -6191,7 +7197,7 @@
         <v>11</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -6199,21 +7205,23 @@
         <v>11</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B647" s="4"/>
+      <c r="A647" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>16</v>
+        <v>333</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -6221,7 +7229,7 @@
         <v>11</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>17</v>
+        <v>288</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -6229,7 +7237,7 @@
         <v>11</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -6237,7 +7245,7 @@
         <v>11</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -6245,7 +7253,7 @@
         <v>11</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -6253,15 +7261,15 @@
         <v>11</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>22</v>
+      <c r="A654" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -6269,7 +7277,7 @@
         <v>11</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>23</v>
+        <v>334</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -6277,21 +7285,23 @@
         <v>11</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B657" s="4"/>
+      <c r="A657" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>16</v>
+        <v>337</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -6299,7 +7309,7 @@
         <v>11</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>17</v>
+        <v>323</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -6307,7 +7317,7 @@
         <v>11</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>18</v>
+        <v>338</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -6315,7 +7325,7 @@
         <v>11</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -6323,7 +7333,7 @@
         <v>11</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -6331,7 +7341,7 @@
         <v>11</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -6339,15 +7349,15 @@
         <v>11</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B665" s="1" t="s">
-        <v>23</v>
+      <c r="A665" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -6355,21 +7365,23 @@
         <v>11</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B667" s="4"/>
+      <c r="A667" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>16</v>
+        <v>321</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -6377,7 +7389,7 @@
         <v>11</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>17</v>
+        <v>303</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -6385,7 +7397,7 @@
         <v>11</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>18</v>
+        <v>323</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -6393,7 +7405,7 @@
         <v>11</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -6401,7 +7413,7 @@
         <v>11</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -6409,7 +7421,7 @@
         <v>11</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -6417,7 +7429,7 @@
         <v>11</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -6425,29 +7437,31 @@
         <v>11</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B676" s="1" t="s">
-        <v>24</v>
+      <c r="A676" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B677" s="4"/>
+      <c r="A677" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>16</v>
+        <v>341</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -6455,7 +7469,7 @@
         <v>11</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>17</v>
+        <v>321</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -6463,7 +7477,7 @@
         <v>11</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -6471,7 +7485,7 @@
         <v>11</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>19</v>
+        <v>323</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -6479,7 +7493,7 @@
         <v>11</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -6487,7 +7501,7 @@
         <v>11</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -6495,7 +7509,7 @@
         <v>11</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -6503,7 +7517,7 @@
         <v>11</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -6511,21 +7525,23 @@
         <v>11</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B687" s="4"/>
+      <c r="B687" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>16</v>
+        <v>343</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -6533,7 +7549,7 @@
         <v>11</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>17</v>
+        <v>342</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -6541,7 +7557,7 @@
         <v>11</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>18</v>
+        <v>321</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -6549,7 +7565,7 @@
         <v>11</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -6557,7 +7573,7 @@
         <v>11</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>20</v>
+        <v>323</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -6565,7 +7581,7 @@
         <v>11</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>21</v>
+        <v>324</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -6573,7 +7589,7 @@
         <v>11</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -6581,7 +7597,7 @@
         <v>11</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -6589,21 +7605,23 @@
         <v>11</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="4" t="s">
+      <c r="A697" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B697" s="4"/>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B698" s="1" t="s">
-        <v>16</v>
+      <c r="B698" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -6611,7 +7629,7 @@
         <v>11</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>17</v>
+        <v>343</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -6619,7 +7637,7 @@
         <v>11</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>18</v>
+        <v>342</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -6627,7 +7645,7 @@
         <v>11</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>19</v>
+        <v>321</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -6635,7 +7653,7 @@
         <v>11</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>20</v>
+        <v>303</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -6643,7 +7661,7 @@
         <v>11</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>21</v>
+        <v>323</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -6651,7 +7669,7 @@
         <v>11</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>22</v>
+        <v>344</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -6659,7 +7677,7 @@
         <v>11</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -6667,29 +7685,31 @@
         <v>11</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B707" s="4"/>
+      <c r="A707" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B709" s="1" t="s">
-        <v>17</v>
+      <c r="A709" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -6697,7 +7717,7 @@
         <v>11</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>18</v>
+        <v>345</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -6705,7 +7725,7 @@
         <v>11</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -6713,7 +7733,7 @@
         <v>11</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>20</v>
+        <v>321</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
@@ -6721,7 +7741,7 @@
         <v>11</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
@@ -6729,7 +7749,7 @@
         <v>11</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
@@ -6737,7 +7757,7 @@
         <v>11</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
@@ -6745,21 +7765,23 @@
         <v>11</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B717" s="4"/>
+      <c r="A717" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
@@ -6767,23 +7789,23 @@
         <v>11</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>18</v>
+      <c r="A720" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B721" s="1" t="s">
-        <v>19</v>
+      <c r="A721" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -6791,7 +7813,7 @@
         <v>11</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>20</v>
+        <v>347</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
@@ -6799,7 +7821,7 @@
         <v>11</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
@@ -6807,7 +7829,7 @@
         <v>11</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>22</v>
+        <v>348</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
@@ -6815,7 +7837,7 @@
         <v>11</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
@@ -6823,21 +7845,23 @@
         <v>11</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>24</v>
+        <v>350</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B727" s="4"/>
+      <c r="A727" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
@@ -6845,7 +7869,7 @@
         <v>11</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
@@ -6853,23 +7877,23 @@
         <v>11</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B731" s="1" t="s">
-        <v>19</v>
+      <c r="A731" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B731" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B732" s="1" t="s">
-        <v>20</v>
+      <c r="A732" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
@@ -6877,7 +7901,7 @@
         <v>11</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
@@ -6885,7 +7909,7 @@
         <v>11</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>22</v>
+        <v>353</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
@@ -6893,7 +7917,7 @@
         <v>11</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
@@ -6901,21 +7925,23 @@
         <v>11</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>24</v>
+        <v>355</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B737" s="4"/>
+      <c r="A737" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>16</v>
+        <v>357</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
@@ -6923,7 +7949,7 @@
         <v>11</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
@@ -6931,7 +7957,7 @@
         <v>11</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
@@ -6939,23 +7965,23 @@
         <v>11</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B742" s="1" t="s">
-        <v>20</v>
+      <c r="A742" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B742" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B743" s="1" t="s">
-        <v>21</v>
+      <c r="A743" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
@@ -6963,7 +7989,7 @@
         <v>11</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
@@ -6971,7 +7997,7 @@
         <v>11</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>23</v>
+        <v>353</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
@@ -6979,21 +8005,23 @@
         <v>11</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>24</v>
+        <v>354</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B747" s="4"/>
+      <c r="A747" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
@@ -7001,7 +8029,7 @@
         <v>11</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>17</v>
+        <v>358</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
@@ -7009,7 +8037,7 @@
         <v>11</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
@@ -7017,7 +8045,7 @@
         <v>11</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
@@ -7025,31 +8053,31 @@
         <v>11</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B753" s="1" t="s">
-        <v>21</v>
+      <c r="A753" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B753" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B754" s="1" t="s">
-        <v>22</v>
+      <c r="A754" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B755" s="1" t="s">
-        <v>23</v>
+      <c r="A755" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
@@ -7057,11 +8085,91 @@
         <v>11</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>24</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B766" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I765" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
